--- a/2016/计算机导论/进度.xlsx
+++ b/2016/计算机导论/进度.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2015C语言" sheetId="5" r:id="rId1"/>
-    <sheet name="2015导论" sheetId="4" r:id="rId2"/>
-    <sheet name="2014" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="2016导论" sheetId="6" r:id="rId1"/>
+    <sheet name="2015C语言" sheetId="5" r:id="rId2"/>
+    <sheet name="2015导论" sheetId="4" r:id="rId3"/>
+    <sheet name="2014" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +219,14 @@
 教材P12,ch1习题:12、13
 教材P13,ch2习题:2,3,4
 学习指导，ch2,2.3习题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6 microsoft office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余3次课交给C语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,9 +359,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -390,12 +396,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -423,6 +423,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,51 +738,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="D1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="43.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="6">
         <v>1</v>
       </c>
@@ -778,14 +921,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="22">
         <v>8</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="6">
         <v>2</v>
       </c>
@@ -793,186 +936,186 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="5" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
         <v>9</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
         <v>10</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
         <v>11</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="6">
         <v>6</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
         <v>13</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
         <v>14</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="6">
         <v>8</v>
       </c>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
         <v>15</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="6">
         <v>9</v>
       </c>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
         <v>16</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="6">
         <v>10</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
         <v>17</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="6">
         <v>11</v>
       </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
         <v>18</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="6">
         <v>12</v>
       </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
         <v>19</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
         <v>20</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
         <v>21</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
         <v>22</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
         <v>23</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -988,7 +1131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -996,26 +1139,26 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="33"/>
+      <c r="D1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1170,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1041,7 +1184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1055,7 +1198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1069,7 +1212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1077,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1085,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1093,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1101,7 +1244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1109,7 +1252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1126,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -1134,294 +1277,294 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+    <row r="13" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="15" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1436,26 +1579,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2016/计算机导论/进度.xlsx
+++ b/2016/计算机导论/进度.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="61">
   <si>
     <t>课次</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,7 +222,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ch6 microsoft office</t>
+    <t>1604052、61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 1H：前言，ch1,发展史，分类与特点，应用。
+2H:重点：计算机中信息的表示：数制，以及各数制间的转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形、视音频信息的表示。计算机发展趋势。
+2. 操作系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 计算机组成与工作原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. microsoft office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 计算机网络入门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,7 +361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,17 +446,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,7 +772,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -754,21 +785,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -779,13 +810,13 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="34" t="s">
         <v>12</v>
       </c>
     </row>
@@ -793,13 +824,13 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -807,8 +838,8 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -817,49 +848,51 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
+      <c r="B7" s="35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+      <c r="B8" s="35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>7</v>
       </c>
+      <c r="B9" s="36" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -883,15 +916,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
@@ -943,7 +976,7 @@
       <c r="B5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="6">
@@ -960,7 +993,7 @@
       <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="6">
         <v>4</v>
       </c>
@@ -973,7 +1006,7 @@
       <c r="B7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="6">
         <v>5</v>
       </c>
@@ -1149,14 +1182,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1285,11 +1318,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1420,7 +1453,7 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1432,7 +1465,7 @@
       <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="11">
@@ -1442,7 +1475,7 @@
       <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
